--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>264320.3671374586</v>
+        <v>261881.8940377117</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>253.2669408845597</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>264.9040639812075</v>
       </c>
       <c r="E2" t="n">
-        <v>282.9271601708234</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>334.1583016338259</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -789,7 +789,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>115.0138334144185</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>52.08247209326908</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>34.43410098197542</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>311.6774819057706</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1026,7 +1026,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U6" t="n">
         <v>225.7871683969286</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>5.462193697341751</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>116.5539134189277</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>126.5388824951702</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>119.4052401486914</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>74.80084129030512</v>
       </c>
       <c r="U10" t="n">
-        <v>81.4608434426853</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>30.87238256911976</v>
+        <v>88.98787776789686</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1658,7 +1658,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>42.71572132711285</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>143.2091541404073</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819381</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>207.4006376819557</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>35.88641949135589</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>110.0177171766869</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2558,13 +2558,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695527</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>11.81332727248867</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986308</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214401</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>127.5379405516738</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>98.72106119200259</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>35.99871774582714</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2245.16419634928</v>
+        <v>2141.34427854677</v>
       </c>
       <c r="C2" t="n">
-        <v>1876.201679408868</v>
+        <v>1885.519085734083</v>
       </c>
       <c r="D2" t="n">
-        <v>1517.935980802117</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4331,7 +4331,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4346,7 +4346,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W2" t="n">
-        <v>2972.837166339057</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.303528325092</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y2" t="n">
-        <v>2245.16419634928</v>
+        <v>2141.34427854677</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4516,22 +4516,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>804.7114165106916</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U4" t="n">
-        <v>804.7114165106916</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V4" t="n">
-        <v>804.7114165106916</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="W4" t="n">
-        <v>515.2942464737309</v>
+        <v>391.8273445118554</v>
       </c>
       <c r="X4" t="n">
-        <v>287.3046955757135</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1285.591601078694</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C5" t="n">
-        <v>916.6290841382822</v>
+        <v>1490.169958279064</v>
       </c>
       <c r="D5" t="n">
-        <v>558.3633855315318</v>
+        <v>1131.904259672313</v>
       </c>
       <c r="E5" t="n">
-        <v>558.3633855315318</v>
+        <v>1131.904259672313</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>720.9183548827057</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649821</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379707</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.330773118627</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y5" t="n">
-        <v>1672.191441142816</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.1461232155714</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C7" t="n">
-        <v>222.1461232155714</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D7" t="n">
-        <v>72.02948380323568</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>72.02948380323568</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>72.02948380323568</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438285</v>
+        <v>713.3253229000284</v>
       </c>
       <c r="V7" t="n">
-        <v>631.7841389438285</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="W7" t="n">
-        <v>631.7841389438285</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="X7" t="n">
-        <v>403.7945880458111</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="Y7" t="n">
-        <v>403.7945880458111</v>
+        <v>458.6408346941415</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308157</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367745</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760994</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.38442316275</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>651.3985183731427</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>236.3260682181391</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.60582160917</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.14006334809</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.000731372279</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.5121164321834</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C10" t="n">
-        <v>66.5121164321834</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4987,25 +4987,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>653.6447163012687</v>
       </c>
       <c r="U10" t="n">
-        <v>838.6033255730482</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="V10" t="n">
-        <v>583.9188373671614</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="W10" t="n">
-        <v>294.5016673302007</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="X10" t="n">
-        <v>66.5121164321834</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.5121164321834</v>
+        <v>364.5418494269122</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5021,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>175.8744207939072</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096659</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>988.1395539230172</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>819.2033709951103</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D13" t="n">
-        <v>669.0867315827745</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="E13" t="n">
-        <v>521.1736380003814</v>
+        <v>432.9862109052762</v>
       </c>
       <c r="F13" t="n">
-        <v>374.283690502471</v>
+        <v>432.9862109052762</v>
       </c>
       <c r="G13" t="n">
-        <v>207.087591217351</v>
+        <v>265.7901116201561</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.987318831765</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1618.570148794804</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1390.580597896787</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>1169.788018753257</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5300,10 +5300,10 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400717</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9405071576786</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>219.0505596597682</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>219.0505596597682</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,13 +5525,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>559.0424953278208</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1478.890260236569</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W19" t="n">
-        <v>1189.473090199609</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>961.4835393015915</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>740.6909601580613</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5756,16 +5756,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2410.714175003133</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2410.714175003133</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400726</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400726</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400726</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8536007400726</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561186</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138424</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703123</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6221,7 +6221,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,19 +6233,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6254,7 +6254,7 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000582</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263529</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135316</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237299</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093769</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>613.6374994204285</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
         <v>402.7245934908939</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D40" t="n">
         <v>484.8112968429803</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="41">
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>634.9279362553159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>816.5764010855556</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>988.1395539230172</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>819.2033709951103</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>669.0867315827745</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>521.1736380003814</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
   </sheetData>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>112.0059508864478</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>99.0032099014384</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>109.4223302771041</v>
+        <v>51.306835078327</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.204026273936473e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>97.57899151911101</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>75.37549921168744</v>
       </c>
     </row>
     <row r="17">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>44.73700564187234</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.6433062151475</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>30.48882721876579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>35.40333084624434</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>206.7713260796106</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>40.64330621515089</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>18.89602209489539</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>119.8635921600922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26074,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>970429.7387832762</v>
+        <v>970429.7387832763</v>
       </c>
     </row>
     <row r="3">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1063319.290792292</v>
+        <v>1063319.290792291</v>
       </c>
     </row>
     <row r="11">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019031</v>
+        <v>335917.9865019033</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389277</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="E2" t="n">
+        <v>363215.9698605025</v>
+      </c>
+      <c r="F2" t="n">
         <v>363215.9698605028</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="H2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="I2" t="n">
         <v>363215.9698605027</v>
-      </c>
-      <c r="G2" t="n">
-        <v>363215.9698605028</v>
-      </c>
-      <c r="H2" t="n">
-        <v>363215.9698605028</v>
-      </c>
-      <c r="I2" t="n">
-        <v>363215.9698605028</v>
       </c>
       <c r="J2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="K2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="L2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="M2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="N2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="O2" t="n">
         <v>363215.9698605028</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51041.86039138729</v>
+        <v>51041.8603913874</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26439,7 +26439,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26454,7 +26454,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1151802.56017847</v>
+        <v>-1151988.953567009</v>
       </c>
       <c r="C6" t="n">
-        <v>167938.1117734818</v>
+        <v>167938.1117734817</v>
       </c>
       <c r="D6" t="n">
         <v>167938.1117734817</v>
       </c>
       <c r="E6" t="n">
-        <v>-78145.71781262694</v>
+        <v>-78180.45573806298</v>
       </c>
       <c r="F6" t="n">
-        <v>247266.743994728</v>
+        <v>247232.0060692926</v>
       </c>
       <c r="G6" t="n">
-        <v>247266.7439947283</v>
+        <v>247232.0060692924</v>
       </c>
       <c r="H6" t="n">
-        <v>247266.7439947284</v>
+        <v>247232.0060692926</v>
       </c>
       <c r="I6" t="n">
-        <v>247266.7439947283</v>
+        <v>247232.0060692925</v>
       </c>
       <c r="J6" t="n">
-        <v>29735.54159745068</v>
+        <v>29700.80367201497</v>
       </c>
       <c r="K6" t="n">
-        <v>247266.7439947281</v>
+        <v>247232.0060692925</v>
       </c>
       <c r="L6" t="n">
-        <v>247266.7439947281</v>
+        <v>247232.0060692926</v>
       </c>
       <c r="M6" t="n">
-        <v>162211.7160592165</v>
+        <v>162176.9781337806</v>
       </c>
       <c r="N6" t="n">
-        <v>247266.7439947282</v>
+        <v>247232.0060692926</v>
       </c>
       <c r="O6" t="n">
-        <v>247266.7439947282</v>
+        <v>247232.0060692926</v>
       </c>
       <c r="P6" t="n">
-        <v>247266.7439947283</v>
+        <v>247232.0060692926</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26790,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>89.77897763947544</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>35.57279904464309</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>104.5351158617507</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>234.4405262433219</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>372.441944759736</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>99.24424374768284</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.5636145616865</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,16 +27828,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>169.6579247866852</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>168.0688818921502</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27910,13 +27910,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>229.8357285687216</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28059,22 +28059,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>144.7481079858641</v>
       </c>
       <c r="U10" t="n">
-        <v>204.7509947629276</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29278,13 +29278,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
     </row>
     <row r="29">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29670,7 +29670,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31607,7 +31607,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>220.7280629601522</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>639.8517673857158</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,10 +32072,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954392</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,34 +32309,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35255,7 +35255,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>82.88662398579324</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>508.5100553023825</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121058</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060466</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
